--- a/CleanData/EvaluationDataASPU_Armenia.xlsx
+++ b/CleanData/EvaluationDataASPU_Armenia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="989"/>
+    <workbookView xWindow="-43860" yWindow="0" windowWidth="38400" windowHeight="21520" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="48">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
   <si>
     <t>N1</t>
   </si>
@@ -179,6 +158,27 @@
   </si>
   <si>
     <t>Speciality: Physics</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty    </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -653,106 +653,106 @@
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -774,13 +774,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -878,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1086,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1190,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1294,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1398,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1710,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1814,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1918,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2118,113 +2118,113 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -2241,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -2345,13 +2345,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -2449,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -2553,13 +2553,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2657,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2761,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2969,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -3177,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -3281,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -3385,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -3776,7 +3776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33:C46"/>
     </sheetView>
   </sheetViews>
@@ -3784,46 +3784,46 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="E4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4006,20 +4006,20 @@
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
       <c r="C30" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,113 +4191,113 @@
   <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -4326,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4431,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4536,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4641,7 +4641,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4746,7 +4746,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4851,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5376,7 +5376,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5672,113 +5672,113 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -5802,7 +5802,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G2" s="15">
         <v>2</v>
@@ -5907,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="15">
         <v>2</v>
@@ -6012,7 +6012,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
@@ -6222,7 +6222,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" s="15">
         <v>2</v>
@@ -6327,7 +6327,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
@@ -6432,7 +6432,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G8" s="15">
         <v>2</v>
@@ -6537,7 +6537,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9" s="15">
         <v>2</v>
@@ -6642,7 +6642,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G10" s="15">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11" s="15">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
@@ -7664,7 +7664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:C40"/>
     </sheetView>
   </sheetViews>
@@ -7678,11 +7678,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -7690,7 +7690,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7701,7 +7701,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -7721,7 +7721,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -7745,7 +7745,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7753,13 +7753,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7898,7 +7898,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12"/>
     </row>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1"/>
     </row>
